--- a/Content/Pokemon/_Data/pokemon-data.xlsx
+++ b/Content/Pokemon/_Data/pokemon-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shivi\Desktop\PokemonRemake\Content\Pokemon\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unreal\PokemonRemake\Content\Pokemon\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{883F3EAA-3632-4540-8B3A-4AF5BA07B133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC80D14-7E41-4224-ACDF-763D9A0DFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="46080" windowHeight="22020" xr2:uid="{85508672-8284-4726-8A97-6AD16808DEE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{85508672-8284-4726-8A97-6AD16808DEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,30 @@
   </si>
   <si>
     <t>Birb</t>
+  </si>
+  <si>
+    <t>Type2</t>
+  </si>
+  <si>
+    <t>Type1</t>
+  </si>
+  <si>
+    <t>Birb-H</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>Ice</t>
   </si>
 </sst>
 </file>
@@ -104,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -144,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -250,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,20 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF18A8C-F114-4A2B-B8C1-A078FA5C0837}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -427,45 +451,89 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E2">
+        <v>43</v>
+      </c>
+      <c r="F2">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
         <v>45</v>
       </c>
-      <c r="F2">
-        <v>80</v>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>80</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>120</v>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
